--- a/data/trans_orig/P16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B05955-73D0-47D1-9BE1-16EDACB86C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{107A79E8-54FA-4E90-B1F1-7F0A824F116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE1160FF-AF38-43AA-91B6-3CF9E4C880B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AF78650-EA7D-4059-9F93-7C135C83C46E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="414">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1189 +77,1207 @@
     <t>1,8%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1674,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A569557-4651-45D5-9610-E0063FFA822C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E577B7A-E9AB-44D2-9B5E-DCC128FB6154}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,7 +2287,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2278,13 +2296,13 @@
         <v>7147</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2293,13 +2311,13 @@
         <v>15473</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,10 +2335,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -2329,13 +2347,13 @@
         <v>508495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>971</v>
@@ -2344,13 +2362,13 @@
         <v>1019316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2418,13 +2436,13 @@
         <v>12709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2433,13 +2451,13 @@
         <v>9237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2448,13 +2466,13 @@
         <v>21946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2487,13 @@
         <v>374001</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2484,13 +2502,13 @@
         <v>394749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -2499,13 +2517,13 @@
         <v>768750</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2752,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -2743,13 +2761,13 @@
         <v>74790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -2758,13 +2776,13 @@
         <v>133452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,16 +2794,16 @@
         <v>3154</v>
       </c>
       <c r="D23" s="7">
-        <v>3216862</v>
+        <v>3216863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -2794,28 +2812,28 @@
         <v>3304408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6377</v>
       </c>
       <c r="N23" s="7">
-        <v>6521270</v>
+        <v>6521271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2845,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2857,7 +2875,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2871,7 +2889,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +2911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055D8DDC-E60E-4100-86E2-A48B858F8794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6F0E23-1B16-4FA1-B562-863DA2444654}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2910,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3017,13 +3035,13 @@
         <v>9057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3032,13 +3050,13 @@
         <v>14927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3047,13 +3065,13 @@
         <v>23984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3086,13 @@
         <v>444048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3083,13 +3101,13 @@
         <v>414412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -3098,13 +3116,13 @@
         <v>858461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3190,13 @@
         <v>19298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3187,13 +3205,13 @@
         <v>26898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3202,13 +3220,13 @@
         <v>46196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3241,13 @@
         <v>666940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>548</v>
@@ -3244,7 +3262,7 @@
         <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>1196</v>
@@ -3253,13 +3271,13 @@
         <v>1250297</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3345,13 @@
         <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3342,13 +3360,13 @@
         <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3357,13 +3375,13 @@
         <v>34097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3426,13 @@
         <v>1350000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3500,13 @@
         <v>12003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3497,13 +3515,13 @@
         <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3512,13 +3530,13 @@
         <v>21782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3551,13 @@
         <v>602614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3548,13 +3566,13 @@
         <v>604293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3563,13 +3581,13 @@
         <v>1206907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3643,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3637,13 +3655,13 @@
         <v>13288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3652,13 +3670,13 @@
         <v>8490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3667,13 +3685,13 @@
         <v>21778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3706,13 @@
         <v>415056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -3703,13 +3721,13 @@
         <v>439310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3718,13 +3736,13 @@
         <v>854366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3810,13 @@
         <v>27448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3807,13 +3825,13 @@
         <v>22837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3822,13 +3840,13 @@
         <v>50285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,16 +3858,16 @@
         <v>481</v>
       </c>
       <c r="D20" s="7">
-        <v>527192</v>
+        <v>527191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>670</v>
@@ -3858,13 +3876,13 @@
         <v>716975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1151</v>
@@ -3873,13 +3891,13 @@
         <v>1244167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3909,7 @@
         <v>501</v>
       </c>
       <c r="D21" s="7">
-        <v>554640</v>
+        <v>554639</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3947,13 +3965,13 @@
         <v>96805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -3962,13 +3980,13 @@
         <v>101318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3977,13 +3995,13 @@
         <v>198123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,16 +4013,16 @@
         <v>3117</v>
       </c>
       <c r="D23" s="7">
-        <v>3319297</v>
+        <v>3319298</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>3194</v>
@@ -4013,13 +4031,13 @@
         <v>3444899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>6311</v>
@@ -4028,13 +4046,13 @@
         <v>6764197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4064,7 @@
         <v>3200</v>
       </c>
       <c r="D24" s="7">
-        <v>3416102</v>
+        <v>3416103</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4090,7 +4108,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEFFB8A-05C7-49E5-91EF-A9AF2CA32C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2300B595-AC19-46E7-980B-BCCEEF21FD22}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4129,7 +4147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4236,13 +4254,13 @@
         <v>2833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4251,7 +4269,7 @@
         <v>9783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>247</v>
@@ -4290,10 +4308,10 @@
         <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -4302,13 +4320,13 @@
         <v>385972</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4317,13 +4335,13 @@
         <v>802602</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4409,13 @@
         <v>18707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4406,13 +4424,13 @@
         <v>14143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4421,13 +4439,13 @@
         <v>32850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4460,13 @@
         <v>571789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4457,13 +4475,13 @@
         <v>549401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4472,13 +4490,13 @@
         <v>1121190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4564,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4561,13 +4579,13 @@
         <v>14323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4576,13 +4594,13 @@
         <v>29234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4615,13 @@
         <v>654186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4612,13 +4630,13 @@
         <v>647063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -4627,13 +4645,13 @@
         <v>1301249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4719,13 @@
         <v>11974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4716,13 +4734,13 @@
         <v>5238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4731,13 +4749,13 @@
         <v>17212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4770,13 @@
         <v>634074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>597</v>
@@ -4767,28 +4785,28 @@
         <v>643839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
       </c>
       <c r="N14" s="7">
-        <v>1277913</v>
+        <v>1277914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,7 +4848,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4844,7 +4862,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4856,13 +4874,13 @@
         <v>9955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4871,13 +4889,13 @@
         <v>17555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4886,13 +4904,13 @@
         <v>27510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4925,13 @@
         <v>467963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -4922,13 +4940,13 @@
         <v>479294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4937,13 +4955,13 @@
         <v>947257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5029,13 @@
         <v>10754</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5026,13 +5044,13 @@
         <v>18922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -5041,13 +5059,13 @@
         <v>29675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5080,13 @@
         <v>580574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5077,13 +5095,13 @@
         <v>759009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -5092,13 +5110,13 @@
         <v>1339584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5184,13 @@
         <v>69134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -5181,13 +5199,13 @@
         <v>79964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -5196,13 +5214,13 @@
         <v>149098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5235,13 @@
         <v>3325216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="H23" s="7">
         <v>3265</v>
@@ -5232,13 +5250,13 @@
         <v>3464578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7">
         <v>6431</v>
@@ -5247,13 +5265,13 @@
         <v>6789794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5327,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5331,7 +5349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B721D16-FED7-4EF4-B231-24DDD96393B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552445CE-F171-437C-ACB2-8DC5EE67ACFE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5348,7 +5366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5455,13 +5473,13 @@
         <v>8158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5470,13 +5488,13 @@
         <v>6978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5485,13 +5503,13 @@
         <v>15136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5524,13 @@
         <v>369521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5521,13 +5539,13 @@
         <v>347979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -5536,13 +5554,13 @@
         <v>717500</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,10 +5631,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5625,13 +5643,13 @@
         <v>11937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5640,13 +5658,13 @@
         <v>15819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,10 +5682,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5676,13 +5694,13 @@
         <v>486640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5691,13 +5709,13 @@
         <v>911154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5783,13 @@
         <v>13736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5780,13 +5798,13 @@
         <v>16008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5795,13 +5813,13 @@
         <v>29745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5834,13 @@
         <v>543516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -5831,13 +5849,13 @@
         <v>567468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>1355</v>
@@ -5849,10 +5867,10 @@
         <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5938,13 @@
         <v>19315</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5935,13 +5953,13 @@
         <v>27862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5950,13 +5968,13 @@
         <v>47177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5989,13 @@
         <v>704675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
@@ -5986,28 +6004,28 @@
         <v>719399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>1755</v>
       </c>
       <c r="N14" s="7">
-        <v>1424075</v>
+        <v>1424074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6067,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6063,7 +6081,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6075,13 +6093,13 @@
         <v>14695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6090,13 +6108,13 @@
         <v>22813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -6105,13 +6123,13 @@
         <v>37508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6144,13 @@
         <v>584391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>958</v>
@@ -6141,13 +6159,13 @@
         <v>570763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>1603</v>
@@ -6156,13 +6174,13 @@
         <v>1155154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6248,13 @@
         <v>18809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -6245,13 +6263,13 @@
         <v>36978</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -6260,10 +6278,10 @@
         <v>55787</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>393</v>
@@ -6281,13 +6299,13 @@
         <v>678425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>1644</v>
@@ -6296,13 +6314,13 @@
         <v>988037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>2642</v>
@@ -6311,13 +6329,13 @@
         <v>1666462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6403,13 @@
         <v>78595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6400,13 +6418,13 @@
         <v>122576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6415,13 +6433,13 @@
         <v>201171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,16 +6451,16 @@
         <v>3292</v>
       </c>
       <c r="D23" s="7">
-        <v>3305041</v>
+        <v>3305042</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>5180</v>
@@ -6451,13 +6469,13 @@
         <v>3680286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>8472</v>
@@ -6466,13 +6484,13 @@
         <v>6985327</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,7 +6502,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6528,7 +6546,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107A79E8-54FA-4E90-B1F1-7F0A824F116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7279DF78-6061-4BD0-99C9-460BBCFF39BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AF78650-EA7D-4059-9F93-7C135C83C46E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84924FD7-B18E-4A77-9A76-360AFA76964D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="424">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1207 +77,1237 @@
     <t>1,8%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1692,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E577B7A-E9AB-44D2-9B5E-DCC128FB6154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5CB573-B983-4776-84CC-61B8E60B7119}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1971,13 +2001,13 @@
         <v>6708</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1986,13 +2016,13 @@
         <v>16267</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -2001,13 +2031,13 @@
         <v>22975</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2052,13 @@
         <v>728781</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>575</v>
@@ -2037,13 +2067,13 @@
         <v>609227</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1271</v>
@@ -2052,13 +2082,13 @@
         <v>1338007</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,7 +2144,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2126,13 +2156,13 @@
         <v>4923</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2141,13 +2171,13 @@
         <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2156,13 +2186,13 @@
         <v>18934</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2207,13 @@
         <v>632726</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -2192,13 +2222,13 @@
         <v>675733</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2207,13 +2237,13 @@
         <v>1308460</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2299,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2284,10 +2314,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2296,13 +2326,13 @@
         <v>7147</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2311,10 +2341,10 @@
         <v>15473</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2335,10 +2365,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -2347,13 +2377,13 @@
         <v>508495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>971</v>
@@ -2362,13 +2392,13 @@
         <v>1019316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2454,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2436,13 +2466,13 @@
         <v>12709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2451,13 +2481,13 @@
         <v>9237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2466,13 +2496,13 @@
         <v>21946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2517,13 @@
         <v>374001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2502,13 +2532,13 @@
         <v>394749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -2517,13 +2547,13 @@
         <v>768750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2609,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2591,13 +2621,13 @@
         <v>17081</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2606,13 +2636,13 @@
         <v>20662</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -2621,13 +2651,13 @@
         <v>37744</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2672,13 @@
         <v>485385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>641</v>
@@ -2657,13 +2687,13 @@
         <v>656180</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1146</v>
@@ -2672,13 +2702,13 @@
         <v>1141564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2776,13 @@
         <v>58663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -2761,13 +2791,13 @@
         <v>74790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -2776,13 +2806,13 @@
         <v>133452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,16 +2824,16 @@
         <v>3154</v>
       </c>
       <c r="D23" s="7">
-        <v>3216863</v>
+        <v>3216862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -2812,13 +2842,13 @@
         <v>3304408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>6377</v>
@@ -2827,13 +2857,13 @@
         <v>6521271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2875,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2889,7 +2919,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6F0E23-1B16-4FA1-B562-863DA2444654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770B37-60C3-432F-9FE7-CFF1B09609E5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2928,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3035,13 +3065,13 @@
         <v>9057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3050,13 +3080,13 @@
         <v>14927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3065,13 +3095,13 @@
         <v>23984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3116,13 @@
         <v>444048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3101,13 +3131,13 @@
         <v>414412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -3116,13 +3146,13 @@
         <v>858461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3220,13 @@
         <v>19298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3205,13 +3235,13 @@
         <v>26898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3220,13 +3250,13 @@
         <v>46196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3271,13 @@
         <v>666940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>548</v>
@@ -3256,13 +3286,13 @@
         <v>583357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1196</v>
@@ -3271,13 +3301,13 @@
         <v>1250297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3363,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3375,13 @@
         <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3360,13 +3390,13 @@
         <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3375,13 +3405,13 @@
         <v>34097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3426,13 @@
         <v>663449</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -3411,13 +3441,13 @@
         <v>686552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1278</v>
@@ -3426,13 +3456,13 @@
         <v>1350000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3518,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3500,13 +3530,13 @@
         <v>12003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3515,13 +3545,13 @@
         <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3530,13 +3560,13 @@
         <v>21782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3581,13 @@
         <v>602614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3566,13 +3596,13 @@
         <v>604293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3581,10 +3611,10 @@
         <v>1206907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>199</v>
@@ -3643,7 +3673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3658,10 +3688,10 @@
         <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3670,13 +3700,13 @@
         <v>8490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3685,13 +3715,13 @@
         <v>21778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3736,13 @@
         <v>415056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -3721,13 +3751,13 @@
         <v>439310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3736,13 +3766,13 @@
         <v>854366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3828,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3840,13 @@
         <v>27448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3825,13 +3855,13 @@
         <v>22837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3840,13 +3870,13 @@
         <v>50285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3891,13 @@
         <v>527191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>670</v>
@@ -3876,13 +3906,13 @@
         <v>716975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>1151</v>
@@ -3891,13 +3921,13 @@
         <v>1244167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3995,13 @@
         <v>96805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -3980,13 +4010,13 @@
         <v>101318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3995,13 +4025,13 @@
         <v>198123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,16 +4043,16 @@
         <v>3117</v>
       </c>
       <c r="D23" s="7">
-        <v>3319298</v>
+        <v>3319297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>3194</v>
@@ -4031,28 +4061,28 @@
         <v>3444899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>6311</v>
       </c>
       <c r="N23" s="7">
-        <v>6764197</v>
+        <v>6764196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4094,7 @@
         <v>3200</v>
       </c>
       <c r="D24" s="7">
-        <v>3416103</v>
+        <v>3416102</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4124,7 @@
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6962320</v>
+        <v>6962319</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4108,7 +4138,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2300B595-AC19-46E7-980B-BCCEEF21FD22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F692300-E664-492C-BE79-117AEC036A54}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4147,7 +4177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4254,13 +4284,13 @@
         <v>2833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4269,13 +4299,13 @@
         <v>9783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4284,13 +4314,13 @@
         <v>12616</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4335,13 @@
         <v>416630</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -4320,7 +4350,7 @@
         <v>385972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>254</v>
@@ -4412,10 +4442,10 @@
         <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4424,13 +4454,13 @@
         <v>14143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4439,13 +4469,13 @@
         <v>32850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4490,13 @@
         <v>571789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4475,13 +4505,13 @@
         <v>549401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4490,13 +4520,13 @@
         <v>1121190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4582,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4594,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4579,13 +4609,13 @@
         <v>14323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4594,13 +4624,13 @@
         <v>29234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4645,13 @@
         <v>654186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4630,13 +4660,13 @@
         <v>647063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -4645,13 +4675,13 @@
         <v>1301249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4737,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4719,13 +4749,13 @@
         <v>11974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4734,13 +4764,13 @@
         <v>5238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4749,13 +4779,13 @@
         <v>17212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4800,13 @@
         <v>634074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>597</v>
@@ -4785,28 +4815,28 @@
         <v>643839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
       </c>
       <c r="N14" s="7">
-        <v>1277914</v>
+        <v>1277913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4878,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4862,7 +4892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4904,13 @@
         <v>9955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4889,13 +4919,13 @@
         <v>17555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4904,13 +4934,13 @@
         <v>27510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4955,13 @@
         <v>467963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -4940,13 +4970,13 @@
         <v>479294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4955,13 +4985,13 @@
         <v>947257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5059,13 @@
         <v>10754</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5044,13 +5074,13 @@
         <v>18922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -5059,13 +5089,13 @@
         <v>29675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5110,13 @@
         <v>580574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5095,13 +5125,13 @@
         <v>759009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -5110,13 +5140,13 @@
         <v>1339584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5214,13 @@
         <v>69134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -5199,13 +5229,13 @@
         <v>79964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -5214,13 +5244,13 @@
         <v>149098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5265,13 @@
         <v>3325216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>3265</v>
@@ -5250,13 +5280,13 @@
         <v>3464578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>6431</v>
@@ -5265,13 +5295,13 @@
         <v>6789794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5357,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5349,7 +5379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552445CE-F171-437C-ACB2-8DC5EE67ACFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069A0F9-7FD5-47B9-BA58-9DEEA7C3385B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5366,7 +5396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5473,13 +5503,13 @@
         <v>8158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5488,13 +5518,13 @@
         <v>6978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5503,13 +5533,13 @@
         <v>15136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5554,13 @@
         <v>369521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5539,13 +5569,13 @@
         <v>347979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -5554,13 +5584,13 @@
         <v>717500</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5658,13 @@
         <v>3882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5643,13 +5673,13 @@
         <v>11937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5661,10 +5691,10 @@
         <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5709,13 @@
         <v>424514</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5694,13 +5724,13 @@
         <v>486640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5709,13 +5739,13 @@
         <v>911154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5801,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5783,13 +5813,13 @@
         <v>13736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5798,13 +5828,13 @@
         <v>16008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5813,13 +5843,13 @@
         <v>29745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5864,13 @@
         <v>543516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -5849,10 +5879,10 @@
         <v>567468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -5864,13 +5894,13 @@
         <v>1110982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,7 +5956,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5938,13 +5968,13 @@
         <v>19315</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5953,13 +5983,13 @@
         <v>27862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5968,13 +5998,13 @@
         <v>47177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +6019,13 @@
         <v>704675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
@@ -6004,13 +6034,13 @@
         <v>719399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1755</v>
@@ -6019,13 +6049,13 @@
         <v>1424074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6093,13 +6123,13 @@
         <v>14695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6108,13 +6138,13 @@
         <v>22813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -6123,13 +6153,13 @@
         <v>37508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6174,13 @@
         <v>584391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>958</v>
@@ -6159,13 +6189,13 @@
         <v>570763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>1603</v>
@@ -6174,13 +6204,13 @@
         <v>1155154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6266,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6248,13 +6278,13 @@
         <v>18809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -6263,13 +6293,13 @@
         <v>36978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -6278,13 +6308,13 @@
         <v>55787</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6329,13 @@
         <v>678425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
         <v>1644</v>
@@ -6314,13 +6344,13 @@
         <v>988037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>2642</v>
@@ -6329,13 +6359,13 @@
         <v>1666462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6433,13 @@
         <v>78595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6418,13 +6448,13 @@
         <v>122576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6433,13 +6463,13 @@
         <v>201171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6484,13 @@
         <v>3305042</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>407</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>5180</v>
@@ -6469,13 +6499,13 @@
         <v>3680286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>8472</v>
@@ -6484,13 +6514,13 @@
         <v>6985327</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,7 +6576,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7279DF78-6061-4BD0-99C9-460BBCFF39BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4874C0-D531-40EA-AF94-AD0BCE684191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84924FD7-B18E-4A77-9A76-360AFA76964D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBA4575-C4D0-4833-B823-BB8B2FF0A0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="408">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,8%</t>
@@ -80,1234 +80,1186 @@
     <t>0,82%</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>92,79%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>96,99%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1722,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5CB573-B983-4776-84CC-61B8E60B7119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D49282-2891-4354-AE1B-913C6D42858B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2001,13 +1953,13 @@
         <v>6708</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2016,13 +1968,13 @@
         <v>16267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -2031,13 +1983,13 @@
         <v>22975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2004,13 @@
         <v>728781</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>575</v>
@@ -2067,13 +2019,13 @@
         <v>609227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1271</v>
@@ -2082,13 +2034,13 @@
         <v>1338007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,7 +2096,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2156,13 +2108,13 @@
         <v>4923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2171,13 +2123,13 @@
         <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2186,13 +2138,13 @@
         <v>18934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2159,13 @@
         <v>632726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -2222,13 +2174,13 @@
         <v>675733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2237,13 +2189,13 @@
         <v>1308460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2251,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2314,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2326,13 +2278,13 @@
         <v>7147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2341,13 +2293,13 @@
         <v>15473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,10 +2317,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -2377,13 +2329,13 @@
         <v>508495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>971</v>
@@ -2392,13 +2344,13 @@
         <v>1019316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2466,13 +2418,13 @@
         <v>12709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2481,13 +2433,13 @@
         <v>9237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2496,10 +2448,10 @@
         <v>21946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>93</v>
@@ -2523,7 +2475,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2532,13 +2484,13 @@
         <v>394749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -2547,13 +2499,13 @@
         <v>768750</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2561,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2573,13 @@
         <v>17081</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2636,13 +2588,13 @@
         <v>20662</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -2651,13 +2603,13 @@
         <v>37744</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2624,13 @@
         <v>485385</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>641</v>
@@ -2687,13 +2639,13 @@
         <v>656180</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1146</v>
@@ -2702,13 +2654,13 @@
         <v>1141564</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2728,13 @@
         <v>58663</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -2791,13 +2743,13 @@
         <v>74790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -2806,13 +2758,13 @@
         <v>133452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2779,13 @@
         <v>3216862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3223</v>
@@ -2842,28 +2794,28 @@
         <v>3304408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="M23" s="7">
         <v>6377</v>
       </c>
       <c r="N23" s="7">
-        <v>6521271</v>
+        <v>6521270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2857,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2919,7 +2871,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770B37-60C3-432F-9FE7-CFF1B09609E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FDCAE5-5EDC-4DC3-8621-5F4F56988AFE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3065,13 +3017,13 @@
         <v>9057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3080,13 +3032,13 @@
         <v>14927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3095,13 +3047,13 @@
         <v>23984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3068,13 @@
         <v>444048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3131,13 +3083,13 @@
         <v>414412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -3146,13 +3098,13 @@
         <v>858461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3172,13 @@
         <v>19298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3235,13 +3187,13 @@
         <v>26898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3250,13 +3202,13 @@
         <v>46196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3223,13 @@
         <v>666940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>548</v>
@@ -3286,13 +3238,13 @@
         <v>583357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1196</v>
@@ -3301,13 +3253,13 @@
         <v>1250297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3315,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3327,13 @@
         <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3390,13 +3342,13 @@
         <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3405,13 +3357,13 @@
         <v>34097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3378,13 @@
         <v>663449</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -3441,13 +3393,13 @@
         <v>686552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1278</v>
@@ -3456,13 +3408,13 @@
         <v>1350000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3470,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3530,13 +3482,13 @@
         <v>12003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3545,13 +3497,13 @@
         <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3560,13 +3512,13 @@
         <v>21782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3533,13 @@
         <v>602614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3596,13 +3548,13 @@
         <v>604293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3611,13 +3563,13 @@
         <v>1206907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3685,13 +3637,13 @@
         <v>13288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3700,13 +3652,13 @@
         <v>8490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3715,13 +3667,13 @@
         <v>21778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3688,13 @@
         <v>415056</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -3751,13 +3703,13 @@
         <v>439310</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3766,13 +3718,13 @@
         <v>854366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3780,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3792,13 @@
         <v>27448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3855,13 +3807,13 @@
         <v>22837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3870,13 +3822,13 @@
         <v>50285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,16 +3840,16 @@
         <v>481</v>
       </c>
       <c r="D20" s="7">
-        <v>527191</v>
+        <v>527192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>670</v>
@@ -3906,13 +3858,13 @@
         <v>716975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1151</v>
@@ -3921,13 +3873,13 @@
         <v>1244167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3891,7 @@
         <v>501</v>
       </c>
       <c r="D21" s="7">
-        <v>554639</v>
+        <v>554640</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3995,13 +3947,13 @@
         <v>96805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -4010,13 +3962,13 @@
         <v>101318</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -4025,13 +3977,13 @@
         <v>198123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +3998,13 @@
         <v>3319297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>3194</v>
@@ -4061,28 +4013,28 @@
         <v>3444899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>6311</v>
       </c>
       <c r="N23" s="7">
-        <v>6764196</v>
+        <v>6764197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4076,7 @@
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6962319</v>
+        <v>6962320</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4138,7 +4090,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F692300-E664-492C-BE79-117AEC036A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BB4439-8F6F-4C7A-B3DF-303AE34AD6BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4177,7 +4129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4284,13 +4236,13 @@
         <v>2833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4299,13 +4251,13 @@
         <v>9783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4314,13 +4266,13 @@
         <v>12616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4287,13 @@
         <v>416630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -4350,13 +4302,13 @@
         <v>385972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4365,13 +4317,13 @@
         <v>802602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4391,13 @@
         <v>18707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4454,13 +4406,13 @@
         <v>14143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4469,13 +4421,13 @@
         <v>32850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4442,13 @@
         <v>571789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4505,13 +4457,13 @@
         <v>549401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4520,13 +4472,13 @@
         <v>1121190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4534,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4594,13 +4546,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4609,13 +4561,13 @@
         <v>14323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4624,13 +4576,13 @@
         <v>29234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4597,13 @@
         <v>654186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4660,13 +4612,13 @@
         <v>647063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -4675,13 +4627,13 @@
         <v>1301249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,7 +4689,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4749,13 +4701,13 @@
         <v>11974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4764,13 +4716,13 @@
         <v>5238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4779,13 +4731,13 @@
         <v>17212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4752,13 @@
         <v>634074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>597</v>
@@ -4815,13 +4767,13 @@
         <v>643839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
@@ -4830,10 +4782,10 @@
         <v>1277913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>302</v>
@@ -4892,7 +4844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4919,13 +4871,13 @@
         <v>17555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4934,13 +4886,13 @@
         <v>27510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4907,13 @@
         <v>467963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -4970,13 +4922,13 @@
         <v>479294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4985,13 +4937,13 @@
         <v>947257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +4999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5059,13 +5011,13 @@
         <v>10754</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5074,13 +5026,13 @@
         <v>18922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -5089,13 +5041,13 @@
         <v>29675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5062,13 @@
         <v>580574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5125,13 +5077,13 @@
         <v>759009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -5140,13 +5092,13 @@
         <v>1339584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5166,13 @@
         <v>69134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -5229,13 +5181,13 @@
         <v>79964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -5244,13 +5196,13 @@
         <v>149098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5217,13 @@
         <v>3325216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
         <v>3265</v>
@@ -5280,13 +5232,13 @@
         <v>3464578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>6431</v>
@@ -5295,13 +5247,13 @@
         <v>6789794</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5309,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069A0F9-7FD5-47B9-BA58-9DEEA7C3385B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975E8B4-DBAC-4AAA-9121-8605417300C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5518,13 +5470,13 @@
         <v>6978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5533,13 +5485,13 @@
         <v>15136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5506,13 @@
         <v>369521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5569,13 +5521,13 @@
         <v>347979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -5584,13 +5536,13 @@
         <v>717500</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5610,13 @@
         <v>3882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5673,13 +5625,13 @@
         <v>11937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5688,13 +5640,13 @@
         <v>15819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5661,13 @@
         <v>424514</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5724,13 +5676,13 @@
         <v>486640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5739,13 +5691,13 @@
         <v>911154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +5753,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5813,13 +5765,13 @@
         <v>13736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5828,13 +5780,13 @@
         <v>16008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -5843,13 +5795,13 @@
         <v>29745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5816,13 @@
         <v>543516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -5879,13 +5831,13 @@
         <v>567468</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>1355</v>
@@ -5894,13 +5846,13 @@
         <v>1110982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5908,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5971,10 +5923,10 @@
         <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5983,13 +5935,13 @@
         <v>27862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5998,10 +5950,10 @@
         <v>47177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>374</v>
@@ -6025,7 +5977,7 @@
         <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
@@ -6034,28 +5986,28 @@
         <v>719399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>1755</v>
       </c>
       <c r="N14" s="7">
-        <v>1424074</v>
+        <v>1424075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6049,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6111,7 +6063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6123,10 +6075,10 @@
         <v>14695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>382</v>
@@ -6138,10 +6090,10 @@
         <v>22813</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>384</v>
@@ -6156,10 +6108,10 @@
         <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6126,13 @@
         <v>584391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>958</v>
@@ -6189,13 +6141,13 @@
         <v>570763</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>1603</v>
@@ -6204,13 +6156,13 @@
         <v>1155154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6278,13 +6230,13 @@
         <v>18809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -6293,13 +6245,13 @@
         <v>36978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -6308,13 +6260,13 @@
         <v>55787</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6281,13 @@
         <v>678425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>1644</v>
@@ -6344,13 +6296,13 @@
         <v>988037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>2642</v>
@@ -6359,13 +6311,13 @@
         <v>1666462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6385,13 @@
         <v>78595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6448,13 +6400,13 @@
         <v>122576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6463,13 +6415,13 @@
         <v>201171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,16 +6433,16 @@
         <v>3292</v>
       </c>
       <c r="D23" s="7">
-        <v>3305042</v>
+        <v>3305041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>5180</v>
@@ -6499,13 +6451,13 @@
         <v>3680286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>8472</v>
@@ -6514,13 +6466,13 @@
         <v>6985327</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6484,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6576,7 +6528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4874C0-D531-40EA-AF94-AD0BCE684191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4241FF44-5A01-4E3B-B702-F351AC95CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBA4575-C4D0-4833-B823-BB8B2FF0A0CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1B1E014-F4CB-440C-B2F7-EE71E9050519}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="461">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -191,7 +191,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -248,7 +248,7 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -299,7 +299,7 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -344,925 +344,1084 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D49282-2891-4354-AE1B-913C6D42858B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA943399-9F9F-456D-A0E5-0A503C4C4F44}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2567,10 +2726,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>17081</v>
+        <v>8990</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2582,10 +2741,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>20662</v>
+        <v>9901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>105</v>
@@ -2597,10 +2756,10 @@
         <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>37744</v>
+        <v>18892</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -2618,10 +2777,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>505</v>
+        <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>485385</v>
+        <v>283593</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -2633,10 +2792,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>641</v>
+        <v>360</v>
       </c>
       <c r="I20" s="7">
-        <v>656180</v>
+        <v>333033</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -2648,10 +2807,10 @@
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>1146</v>
+        <v>653</v>
       </c>
       <c r="N20" s="7">
-        <v>1141564</v>
+        <v>616625</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
@@ -2669,10 +2828,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2684,10 +2843,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2699,10 +2858,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2716,55 +2875,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>58663</v>
+        <v>8091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>74790</v>
+        <v>10761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="7">
         <v>17</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>133</v>
-      </c>
       <c r="N22" s="7">
-        <v>133452</v>
+        <v>18852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,49 +2932,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3154</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3216862</v>
+        <v>201792</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>3223</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>3304408</v>
+        <v>323147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
-        <v>6377</v>
+        <v>493</v>
       </c>
       <c r="N23" s="7">
-        <v>6521270</v>
+        <v>524939</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,63 +2983,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>58663</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>74</v>
+      </c>
+      <c r="I25" s="7">
+        <v>74790</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="7">
+        <v>133</v>
+      </c>
+      <c r="N25" s="7">
+        <v>133452</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3154</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3216862</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3223</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3304407</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6377</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6521270</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2893,8 +3208,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FDCAE5-5EDC-4DC3-8621-5F4F56988AFE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A15ED2-E65F-493A-8B07-4D111368544C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2910,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3017,13 +3332,13 @@
         <v>9057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3032,13 +3347,13 @@
         <v>14927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3047,13 +3362,13 @@
         <v>23984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,10 +3383,10 @@
         <v>444048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>41</v>
@@ -3083,13 +3398,13 @@
         <v>414412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -3098,13 +3413,13 @@
         <v>858461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +3490,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3187,13 +3502,13 @@
         <v>26898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3202,13 +3517,13 @@
         <v>46196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,10 +3541,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>548</v>
@@ -3238,13 +3553,13 @@
         <v>583357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>1196</v>
@@ -3253,13 +3568,13 @@
         <v>1250297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3642,13 @@
         <v>15711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3342,13 +3657,13 @@
         <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3360,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3378,28 +3693,28 @@
         <v>663449</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
       </c>
       <c r="I11" s="7">
-        <v>686552</v>
+        <v>686551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>1278</v>
@@ -3414,7 +3729,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3756,7 @@
         <v>662</v>
       </c>
       <c r="I12" s="7">
-        <v>704938</v>
+        <v>704937</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3482,13 +3797,13 @@
         <v>12003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3497,13 +3812,13 @@
         <v>9779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3515,10 +3830,10 @@
         <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,10 +3848,10 @@
         <v>602614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>85</v>
@@ -3548,13 +3863,13 @@
         <v>604293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3566,10 +3881,10 @@
         <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3952,13 @@
         <v>13288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3652,13 +3967,13 @@
         <v>8490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3667,13 +3982,13 @@
         <v>21778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +4003,13 @@
         <v>415056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -3703,13 +4018,13 @@
         <v>439310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3718,13 +4033,13 @@
         <v>854366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +4101,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27448</v>
+        <v>17581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9552</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="7">
         <v>21</v>
       </c>
-      <c r="I19" s="7">
-        <v>22837</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
       <c r="N19" s="7">
-        <v>50285</v>
+        <v>27133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,49 +4152,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>481</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
-        <v>527192</v>
+        <v>290214</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
-        <v>670</v>
+        <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>716975</v>
+        <v>343507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
-        <v>1151</v>
+        <v>603</v>
       </c>
       <c r="N20" s="7">
-        <v>1244167</v>
+        <v>633721</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +4203,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>554640</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3903,10 +4218,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739812</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3918,10 +4233,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1192</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1294452</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3935,55 +4250,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>96805</v>
+        <v>9867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>101318</v>
+        <v>13285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>198123</v>
+        <v>23152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,49 +4307,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3117</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3319297</v>
+        <v>236977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
-        <v>3194</v>
+        <v>336</v>
       </c>
       <c r="I23" s="7">
-        <v>3444899</v>
+        <v>373468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
-        <v>6311</v>
+        <v>548</v>
       </c>
       <c r="N23" s="7">
-        <v>6764197</v>
+        <v>610445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,63 +4358,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246844</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633597</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7">
+        <v>96805</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="7">
+        <v>93</v>
+      </c>
+      <c r="I25" s="7">
+        <v>101318</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" s="7">
+        <v>176</v>
+      </c>
+      <c r="N25" s="7">
+        <v>198123</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3117</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3319298</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3194</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3444899</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6311</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6764197</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3200</v>
       </c>
-      <c r="D24" s="7">
-        <v>3416102</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3416103</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3287</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3546217</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6487</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6962320</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4112,8 +4583,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BB4439-8F6F-4C7A-B3DF-303AE34AD6BA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2CE22B-D12B-4B4A-8644-8BCE7B480524}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4129,7 +4600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4236,13 +4707,13 @@
         <v>2833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4251,13 +4722,13 @@
         <v>9783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4266,13 +4737,13 @@
         <v>12616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4758,13 @@
         <v>416630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -4302,13 +4773,13 @@
         <v>385972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4317,13 +4788,13 @@
         <v>802602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4862,13 @@
         <v>18707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4406,13 +4877,13 @@
         <v>14143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4421,13 +4892,13 @@
         <v>32850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4913,13 @@
         <v>571789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4457,13 +4928,13 @@
         <v>549401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1114</v>
@@ -4472,13 +4943,13 @@
         <v>1121190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +5017,13 @@
         <v>14911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4561,13 +5032,13 @@
         <v>14323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4576,13 +5047,13 @@
         <v>29234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +5068,13 @@
         <v>654186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4612,13 +5083,13 @@
         <v>647063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -4627,13 +5098,13 @@
         <v>1301249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +5172,13 @@
         <v>11974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4716,13 +5187,13 @@
         <v>5238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4731,13 +5202,13 @@
         <v>17212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +5223,13 @@
         <v>634074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>597</v>
@@ -4767,10 +5238,10 @@
         <v>643839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -4782,13 +5253,13 @@
         <v>1277913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +5327,13 @@
         <v>9955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4871,13 +5342,13 @@
         <v>17555</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4886,13 +5357,13 @@
         <v>27510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +5378,13 @@
         <v>467963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -4922,13 +5393,13 @@
         <v>479294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4937,13 +5408,13 @@
         <v>947257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,49 +5476,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>10754</v>
+        <v>9102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8743</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="7">
-        <v>18922</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
       <c r="N19" s="7">
-        <v>29675</v>
+        <v>17845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,49 +5527,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>617</v>
+        <v>317</v>
       </c>
       <c r="D20" s="7">
-        <v>580574</v>
+        <v>325228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
-        <v>640</v>
+        <v>347</v>
       </c>
       <c r="I20" s="7">
-        <v>759009</v>
+        <v>369019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
-        <v>1257</v>
+        <v>664</v>
       </c>
       <c r="N20" s="7">
-        <v>1339584</v>
+        <v>694247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,10 +5578,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5122,10 +5593,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5137,10 +5608,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5154,55 +5625,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>69134</v>
+        <v>1651</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>79964</v>
+        <v>10179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>149098</v>
+        <v>11830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,49 +5682,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3166</v>
+        <v>300</v>
       </c>
       <c r="D23" s="7">
-        <v>3325216</v>
+        <v>255347</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>362</v>
       </c>
       <c r="H23" s="7">
-        <v>3265</v>
+        <v>293</v>
       </c>
       <c r="I23" s="7">
-        <v>3464578</v>
+        <v>389990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="M23" s="7">
-        <v>6431</v>
+        <v>593</v>
       </c>
       <c r="N23" s="7">
-        <v>6789794</v>
+        <v>645337</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,63 +5733,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>65</v>
+      </c>
+      <c r="D25" s="7">
+        <v>69134</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="7">
+        <v>73</v>
+      </c>
+      <c r="I25" s="7">
+        <v>79964</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M25" s="7">
+        <v>138</v>
+      </c>
+      <c r="N25" s="7">
+        <v>149098</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3325216</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3265</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3464578</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6431</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6789794</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5331,8 +5958,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975E8B4-DBAC-4AAA-9121-8605417300C2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B125B14-E7D4-4D3F-9197-F33799715E9A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5348,7 +5975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5452,46 +6079,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>8158</v>
+        <v>7758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>6978</v>
+        <v>7211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>15136</v>
+        <v>14969</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,46 +6130,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>369521</v>
+        <v>392229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>347979</v>
+        <v>305989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>717500</v>
+        <v>698218</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +6181,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5569,7 +6196,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5584,7 +6211,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5607,46 +6234,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3882</v>
+        <v>3944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>11937</v>
+        <v>10979</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>15819</v>
+        <v>14923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,46 +6285,46 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>424514</v>
+        <v>419603</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
       </c>
       <c r="I8" s="7">
-        <v>486640</v>
+        <v>500525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>911154</v>
+        <v>920128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +6336,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5724,7 +6351,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5739,7 +6366,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5762,46 +6389,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>13736</v>
+        <v>13109</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>16008</v>
+        <v>15222</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>29745</v>
+        <v>28332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,46 +6440,46 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>543516</v>
+        <v>523229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
       </c>
       <c r="I11" s="7">
-        <v>567468</v>
+        <v>527246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>1355</v>
       </c>
       <c r="N11" s="7">
-        <v>1110982</v>
+        <v>1050474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +6491,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5879,7 +6506,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5894,7 +6521,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5917,46 +6544,46 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>19315</v>
+        <v>18678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>27862</v>
+        <v>24573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>47177</v>
+        <v>43252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,46 +6595,46 @@
         <v>647</v>
       </c>
       <c r="D14" s="7">
-        <v>704675</v>
+        <v>869108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
       </c>
       <c r="I14" s="7">
-        <v>719399</v>
+        <v>688308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>1755</v>
       </c>
       <c r="N14" s="7">
-        <v>1424075</v>
+        <v>1557415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,7 +6646,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6034,7 +6661,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6049,7 +6676,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6072,46 +6699,46 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>14695</v>
+        <v>13995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>22813</v>
+        <v>21065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>37508</v>
+        <v>35059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,46 +6750,46 @@
         <v>645</v>
       </c>
       <c r="D17" s="7">
-        <v>584391</v>
+        <v>546242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>958</v>
       </c>
       <c r="I17" s="7">
-        <v>570763</v>
+        <v>523822</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>1603</v>
       </c>
       <c r="N17" s="7">
-        <v>1155154</v>
+        <v>1070065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6801,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6189,7 +6816,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6204,7 +6831,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6224,49 +6851,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>18809</v>
+        <v>9527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>36978</v>
+        <v>13840</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="N19" s="7">
-        <v>55787</v>
+        <v>23367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,49 +6902,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>998</v>
+        <v>555</v>
       </c>
       <c r="D20" s="7">
-        <v>678425</v>
+        <v>358638</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
-        <v>1644</v>
+        <v>800</v>
       </c>
       <c r="I20" s="7">
-        <v>988037</v>
+        <v>594528</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
-        <v>2642</v>
+        <v>1355</v>
       </c>
       <c r="N20" s="7">
-        <v>1666462</v>
+        <v>953166</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,10 +6953,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6341,10 +6968,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6356,10 +6983,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6373,55 +7000,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>78595</v>
+        <v>8183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>122576</v>
+        <v>18766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>201171</v>
+        <v>26949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,49 +7057,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3292</v>
+        <v>443</v>
       </c>
       <c r="D23" s="7">
-        <v>3305041</v>
+        <v>274086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
-        <v>5180</v>
+        <v>844</v>
       </c>
       <c r="I23" s="7">
-        <v>3680286</v>
+        <v>405628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
-        <v>8472</v>
+        <v>1287</v>
       </c>
       <c r="N23" s="7">
-        <v>6985327</v>
+        <v>679714</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,63 +7108,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7">
+        <v>75194</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>111657</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M25" s="7">
+        <v>261</v>
+      </c>
+      <c r="N25" s="7">
+        <v>186852</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3292</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3383136</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5180</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3546045</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8472</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6929180</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657702</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>7116032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
